--- a/data/Eksklusionslister/FN_eksklusionsliste_isin.xlsx
+++ b/data/Eksklusionslister/FN_eksklusionsliste_isin.xlsx
@@ -511,17 +511,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['Airbnb Inc', 'Airbnb Inc. A', 'Airbnb\xa0Inc']</t>
+          <t>['Airbnb\xa0Inc', 'Airbnb Inc', 'Airbnb Inc. A']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Airbnb Inc', 'Airbnb Inc. A', 'Airbnb', 'Airbnb, Inc.']</t>
+          <t>['Airbnb', 'Airbnb Inc', 'Airbnb Inc. A', 'Airbnb, Inc.']</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>['Holstebro', 'Rudersdal', 'Assens', 'Billund', 'Bornholm', 'Frederiksberg', 'Gribskov', 'Guldborgsund', 'Horsens', 'Hvidovre', 'Høje Taastrup', 'Jammerbugt', 'Lejre', 'Lyngby-Taarbæk', 'Mariagerfjord', 'Nordfyn', 'Nyborg', 'Rebild', 'Roskilde', 'Rødovre', 'Skanderborg', 'Solrød', 'Svendborg', 'Thisted', 'Tønder', 'Vallensbæk', 'Viborg', 'Aabenraa', 'Egedal', 'Favrskov', 'Næstved', 'Odense', 'Randers', 'Region\xa0Nordjylland', 'Region Sjælland', 'Fanø', 'Esbjerg', 'Aalborg', 'Aarhus']</t>
+          <t>['Viborg', 'Guldborgsund', 'Næstved', 'Odense', 'Randers', 'Region\xa0Nordjylland', 'Esbjerg', 'Holstebro', 'Rudersdal', 'Mariagerfjord', 'Aalborg', 'Assens', 'Billund', 'Bornholm', 'Frederiksberg', 'Gribskov', 'Horsens', 'Hvidovre', 'Høje Taastrup', 'Jammerbugt', 'Lejre', 'Lyngby-Taarbæk', 'Nordfyn', 'Nyborg', 'Rebild', 'Roskilde', 'Rødovre', 'Skanderborg', 'Solrød', 'Svendborg', 'Thisted', 'Tønder', 'Vallensbæk', 'Aabenraa', 'Egedal', 'Favrskov', 'Region Sjælland', 'Fanø', 'Aarhus']</t>
         </is>
       </c>
     </row>
@@ -4111,17 +4111,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['Alstom S.A.', 'Frankrig', 'Alstom SA', 'Alstom SA 31.12.2177', 'ALSTOM SA PERPETUAL']</t>
+          <t>['Alstom S.A.', 'Frankrig', 'Alstom SA 31.12.2177', 'Alstom SA', 'ALSTOM SA PERPETUAL']</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['Alstom S.A.', 'ALSTOM SA PERP', 'ALOFP 5.868 PERP', 'ALSTOM SA PERPETUAL']</t>
+          <t>['Alstom S.A.', 'ALOFP 5.868 PERP', 'ALSTOM SA PERP', 'ALSTOM SA PERPETUAL']</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>['Rødovre', 'Fanø', 'Assens', 'Billund', 'Bornholm', 'Gribskov', 'Guldborgsund', 'Holstebro', 'Horsens', 'Hvidovre', 'Høje Taastrup', 'Jammerbugt', 'Lejre', 'Lyngby-Taarbæk', 'Mariagerfjord', 'Nordfyn', 'Nyborg', 'Rebild', 'Region Sjælland', 'Rudersdal', 'Thisted', 'Vallensbæk', 'Vejen', 'Aabenraa', 'Fredericia', 'Greve', 'Herning', 'Hørsholm', 'Kolding', 'Lemvig', 'Næstved', 'Randers', 'Skive', 'Varde', 'Brønderslev', 'Slagelse', 'Kalundborg', 'Hillerød']</t>
+          <t>['Rødovre', 'Fanø', 'Fredericia', 'Greve', 'Herning', 'Høje Taastrup', 'Hørsholm', 'Kolding', 'Lemvig', 'Næstved', 'Randers', 'Skive', 'Varde', 'Hillerød', 'Aabenraa', 'Assens', 'Billund', 'Bornholm', 'Gribskov', 'Guldborgsund', 'Holstebro', 'Horsens', 'Hvidovre', 'Jammerbugt', 'Lejre', 'Lyngby-Taarbæk', 'Mariagerfjord', 'Nordfyn', 'Nyborg', 'Rebild', 'Region Sjælland', 'Rudersdal', 'Thisted', 'Vallensbæk', 'Vejen', 'Kalundborg', 'Brønderslev', 'Slagelse']</t>
         </is>
       </c>
     </row>
@@ -4246,17 +4246,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['BOOKING HOLDINGS INC', 'Booking Holdings Inc', 'Booking Holdings Inc.', 'Booking\xa0Holdings\xa0Inc', nan, 'USA', 'Booking Holdings Inc 08.03.2028', 'Booking Holdings Inc 15.11.2026', '3.50% Booking Holdings Inc 2029', '3.75% Booking Holdings Inc 2036', '4.00% Booking Holdings Inc 2044']</t>
+          <t>['BOOKING HOLDINGS INC', 'Booking Holdings Inc', nan, 'Booking Holdings Inc.', 'USA', 'Booking\xa0Holdings\xa0Inc', 'Booking Holdings Inc 08.03.2028', 'Booking Holdings Inc 15.11.2026', '3.50% Booking Holdings Inc 2029', '3.75% Booking Holdings Inc 2036', '4.00% Booking Holdings Inc 2044']</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['BOOKING HOLDINGS INC', 'Booking Holdings Inc', 'Booking Holdings Inc.', 'Booking\xa0Holdings', 'Booking Holdings, Inc.', 'Booking Holdings Inc 1.8%', 'Booking Holdings Inc 0.1% 20250308', 'Booking Holdings Inc 08.03.2028', 'BKNG 0 1/2 03/08/28', 'Booking Holdings Inc 15.11.2026', 'BKNG 4 11/15/26', 'BOOKING HOLDINGS INC 4% 15.11.2026', 'BOOKING HOLDINGS INC 4.5% 15.11.2031', 'Booking Holdings Inc 4.13%', '3.50% Booking Holdings Inc 2029', '3.75% Booking Holdings Inc 2036', '4.00% Booking Holdings Inc 2044']</t>
+          <t>['BOOKING HOLDINGS INC', 'Booking Holdings Inc', 'Booking Holdings Inc.', 'Booking Holdings, Inc.', 'Booking\xa0Holdings', 'Booking Holdings Inc 1.8%', 'Booking Holdings Inc 0.1% 20250308', 'BKNG 0 1/2 03/08/28', 'Booking Holdings Inc 08.03.2028', 'BKNG 4 11/15/26', 'Booking Holdings Inc 15.11.2026', 'BOOKING HOLDINGS INC 4% 15.11.2026', 'BOOKING HOLDINGS INC 4.5% 15.11.2031', 'Booking Holdings Inc 4.13%', '3.50% Booking Holdings Inc 2029', '3.75% Booking Holdings Inc 2036', '4.00% Booking Holdings Inc 2044']</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>['Furesø', 'Holstebro', 'Rudersdal', 'Skive', 'Svendborg', 'Assens', 'Billund', 'Bornholm', 'Frederiksberg', 'Gribskov', 'Guldborgsund', 'Horsens', 'Hvidovre', 'Høje Taastrup', 'Jammerbugt', 'Lejre', 'Lyngby-Taarbæk', 'Mariagerfjord', 'Nordfyn', 'Nyborg', 'Rebild', 'Roskilde', 'Rødovre', 'Skanderborg', 'Solrød', 'Thisted', 'Tønder', 'Vallensbæk', 'Viborg', 'Aabenraa', 'Egedal', 'Favrskov', 'Fanø', 'Esbjerg', 'Aalborg', 'Aarhus', 'Holbæk', 'Vesthimmerland', 'Norddjurs', 'Fredericia', 'Greve', 'Herning', 'Hørsholm', 'Kolding', 'Næstved', 'Varde', 'Vejle', 'Odense', 'Region Nordjylland', 'Hedensted', 'Ringkøbing-Skjern', 'Fredensborg', 'Syddjurs']</t>
+          <t>['Furesø', 'Holstebro', 'Rudersdal', 'Skive', 'Svendborg', 'Mariagerfjord', 'Esbjerg', 'Aalborg', 'Assens', 'Billund', 'Bornholm', 'Frederiksberg', 'Gribskov', 'Guldborgsund', 'Horsens', 'Hvidovre', 'Høje Taastrup', 'Jammerbugt', 'Lejre', 'Lyngby-Taarbæk', 'Nordfyn', 'Nyborg', 'Rebild', 'Roskilde', 'Rødovre', 'Skanderborg', 'Solrød', 'Thisted', 'Tønder', 'Vallensbæk', 'Viborg', 'Aabenraa', 'Egedal', 'Favrskov', 'Fanø', 'Aarhus', 'Holbæk', 'Vesthimmerland', 'Fredericia', 'Greve', 'Herning', 'Hørsholm', 'Kolding', 'Næstved', 'Varde', 'Norddjurs', 'Vejle', 'Odense', 'Region Nordjylland', 'Hedensted', 'Ringkøbing-Skjern', 'Fredensborg', 'Syddjurs']</t>
         </is>
       </c>
     </row>
@@ -4336,17 +4336,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['eDreams ODIGEO SA', '5.50% eDreams ODIGEO SA 2027', 'eDreams ODIGEO SA 15.07.2027', nan]</t>
+          <t>['5.50% eDreams ODIGEO SA 2027', 'eDreams ODIGEO SA', nan, 'eDreams ODIGEO SA 15.07.2027']</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['eDreams ODIGEO SA', '5.50% eDreams ODIGEO SA 2027', 'EDRSM 5 1/2 07/15/27']</t>
+          <t>['5.50% eDreams ODIGEO SA 2027', 'eDreams ODIGEO SA', 'EDRSM 5 1/2 07/15/27']</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>['Aarhus', 'Ringkøbing-Skjern', 'Region Nordjylland', 'Fredericia', 'Greve', 'Herning', 'Høje Taastrup', 'Hørsholm', 'Kolding', 'Lemvig', 'Næstved', 'Randers', 'Skive', 'Varde', 'Region Hovedstaden', 'Hillerød', 'Aabenraa']</t>
+          <t>['Ringkøbing-Skjern', 'Region Nordjylland', 'Region Hovedstaden', 'Aarhus', 'Fredericia', 'Greve', 'Herning', 'Høje Taastrup', 'Hørsholm', 'Kolding', 'Lemvig', 'Næstved', 'Randers', 'Skive', 'Varde', 'Hillerød', 'Aabenraa']</t>
         </is>
       </c>
     </row>
